--- a/medicine/Psychotrope/Théodore_Martell/Théodore_Martell.xlsx
+++ b/medicine/Psychotrope/Théodore_Martell/Théodore_Martell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Martell</t>
+          <t>Théodore_Martell</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Théodore Martell est un homme politique français né le 22 janvier 1784 à Cognac (Charente) et décédé le 9 juin 1860 à Paris.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Th%C3%A9odore_Martell</t>
+          <t>Théodore_Martell</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du négociant Frédéric-Gabriel Martel et de Marie-Anne Marthe Broussard de Pommarais, et petit-fils de Jean Martell, il participe à la gestion de la maison de négoce de cognac familiale. 
 Il est député de la Gironde de 1828 à 1830, dans l'opposition à Charles X et vota l'adresse des 221. Il est réélu sous la monarchie de Juillet, qu'il soutient, comme député, de 1831 à 1837 et de 1838 à 1842. Battu en 1842, il est nommé pair de France en 1845. La révolution de février 1848 met fin à sa carrière politique. 
